--- a/Classeur1.xlsx
+++ b/Classeur1.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Rojo\Eval\Race\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C8699701-D0FC-463B-A412-FF234210A354}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBDD804E-B409-460F-B37F-697E879CC631}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{B92A8B86-66B0-4F97-945D-B81BD2742883}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="63">
   <si>
     <t>ULTIMATE TEAM RACE</t>
   </si>
@@ -138,9 +138,6 @@
     <t>Tableau coureur</t>
   </si>
   <si>
-    <t>all coureur by equipe by etape</t>
-  </si>
-  <si>
     <t>insertion composition etape</t>
   </si>
   <si>
@@ -169,6 +166,54 @@
   </si>
   <si>
     <t>gener classement(by etape)</t>
+  </si>
+  <si>
+    <t>teste</t>
+  </si>
+  <si>
+    <t>resultat</t>
+  </si>
+  <si>
+    <t>testeur</t>
+  </si>
+  <si>
+    <t>all coureur by equipe not/in by etape</t>
+  </si>
+  <si>
+    <t>imput file</t>
+  </si>
+  <si>
+    <t>Lire csv</t>
+  </si>
+  <si>
+    <t>insertion</t>
+  </si>
+  <si>
+    <t>import Etape/resultat</t>
+  </si>
+  <si>
+    <t>import Point</t>
+  </si>
+  <si>
+    <t>page d'accueille Equipe</t>
+  </si>
+  <si>
+    <t>tableau</t>
+  </si>
+  <si>
+    <t>all resultat by equipe</t>
+  </si>
+  <si>
+    <t>generer categorie</t>
+  </si>
+  <si>
+    <t>button</t>
+  </si>
+  <si>
+    <t>generet categorie by coureur</t>
+  </si>
+  <si>
+    <t>Classement by equipe by categorie</t>
   </si>
 </sst>
 </file>
@@ -235,7 +280,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -272,6 +317,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -286,20 +337,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -307,16 +368,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -632,10 +687,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69599BEC-1086-44FA-A031-2438BC95AB37}">
-  <dimension ref="A1:M41"/>
+  <dimension ref="A1:M59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="F60" sqref="F60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -646,103 +701,103 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.4">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
     </row>
     <row r="3" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="4" t="s">
+      <c r="A3" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
     </row>
     <row r="4" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="7" t="s">
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="7"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
     </row>
     <row r="7" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8" t="s">
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8" t="s">
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="8"/>
-      <c r="I7" s="9" t="s">
+      <c r="H7" s="5"/>
+      <c r="I7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="9" t="s">
+      <c r="J7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K7" s="9" t="s">
+      <c r="K7" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L7" s="9" t="s">
+      <c r="L7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M7" s="9" t="s">
+      <c r="M7" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11" t="s">
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="H8" s="11"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8" s="6"/>
       <c r="I8">
         <v>30</v>
       </c>
@@ -753,7 +808,7 @@
         <f>I8-J8</f>
         <v>0</v>
       </c>
-      <c r="L8" s="10">
+      <c r="L8" s="3">
         <v>1</v>
       </c>
       <c r="M8">
@@ -761,20 +816,20 @@
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11" t="s">
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="H9" s="11"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H9" s="6"/>
       <c r="I9">
         <v>30</v>
       </c>
@@ -782,10 +837,10 @@
         <v>30</v>
       </c>
       <c r="K9">
-        <f t="shared" ref="K9:K41" si="0">I9-J9</f>
-        <v>0</v>
-      </c>
-      <c r="L9" s="10">
+        <f t="shared" ref="K9:K51" si="0">I9-J9</f>
+        <v>0</v>
+      </c>
+      <c r="L9" s="3">
         <v>1</v>
       </c>
       <c r="M9">
@@ -793,20 +848,20 @@
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11" t="s">
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="H10" s="11"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H10" s="6"/>
       <c r="I10">
         <v>30</v>
       </c>
@@ -817,7 +872,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L10" s="10">
+      <c r="L10" s="3">
         <v>1</v>
       </c>
       <c r="M10">
@@ -825,20 +880,20 @@
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="11"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11" t="s">
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="H11" s="11"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H11" s="6"/>
       <c r="I11">
         <v>30</v>
       </c>
@@ -849,7 +904,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L11" s="10">
+      <c r="L11" s="3">
         <v>1</v>
       </c>
       <c r="M11">
@@ -857,20 +912,20 @@
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A12" s="11" t="s">
+      <c r="A12" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11" t="s">
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="H12" s="11"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H12" s="6"/>
       <c r="I12">
         <v>15</v>
       </c>
@@ -881,7 +936,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L12" s="10">
+      <c r="L12" s="3">
         <v>1</v>
       </c>
       <c r="M12">
@@ -889,20 +944,20 @@
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5" t="s">
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5" t="s">
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="H13" s="5"/>
+      <c r="H13" s="4"/>
       <c r="I13">
         <v>15</v>
       </c>
@@ -913,7 +968,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L13" s="10">
+      <c r="L13" s="3">
         <v>1</v>
       </c>
       <c r="M13">
@@ -921,20 +976,20 @@
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5" t="s">
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5" t="s">
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="H14" s="5"/>
+      <c r="H14" s="4"/>
       <c r="I14">
         <v>15</v>
       </c>
@@ -945,7 +1000,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L14" s="10">
+      <c r="L14" s="3">
         <v>1</v>
       </c>
       <c r="M14">
@@ -953,20 +1008,20 @@
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5" t="s">
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5" t="s">
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="H15" s="5"/>
+      <c r="H15" s="4"/>
       <c r="I15">
         <v>15</v>
       </c>
@@ -977,7 +1032,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L15" s="10">
+      <c r="L15" s="3">
         <v>1</v>
       </c>
       <c r="M15">
@@ -985,20 +1040,20 @@
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5" t="s">
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5" t="s">
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="H16" s="5"/>
+      <c r="H16" s="4"/>
       <c r="I16">
         <v>15</v>
       </c>
@@ -1009,7 +1064,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L16" s="10">
+      <c r="L16" s="3">
         <v>1</v>
       </c>
       <c r="M16">
@@ -1017,20 +1072,20 @@
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5" t="s">
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5" t="s">
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="H17" s="5"/>
+      <c r="H17" s="4"/>
       <c r="I17">
         <v>30</v>
       </c>
@@ -1041,7 +1096,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L17" s="10">
+      <c r="L17" s="3">
         <v>1</v>
       </c>
       <c r="M17">
@@ -1049,20 +1104,20 @@
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A18" s="5" t="s">
+      <c r="A18" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5" t="s">
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="H18" s="5"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="4"/>
       <c r="I18">
         <v>30</v>
       </c>
@@ -1073,7 +1128,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L18" s="10">
+      <c r="L18" s="3">
         <v>1</v>
       </c>
       <c r="M18">
@@ -1081,20 +1136,20 @@
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A19" s="5" t="s">
+      <c r="A19" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5" t="s">
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5" t="s">
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="H19" s="5"/>
+      <c r="H19" s="4"/>
       <c r="I19">
         <v>10</v>
       </c>
@@ -1105,7 +1160,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L19" s="10">
+      <c r="L19" s="3">
         <v>1</v>
       </c>
       <c r="M19">
@@ -1113,20 +1168,20 @@
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A20" s="5" t="s">
+      <c r="A20" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5" t="s">
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5" t="s">
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="H20" s="5"/>
+      <c r="H20" s="4"/>
       <c r="I20">
         <v>15</v>
       </c>
@@ -1137,7 +1192,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L20" s="10">
+      <c r="L20" s="3">
         <v>1</v>
       </c>
       <c r="M20">
@@ -1145,20 +1200,20 @@
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A21" s="5" t="s">
+      <c r="A21" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5" t="s">
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="5"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H21" s="4"/>
       <c r="I21">
         <v>10</v>
       </c>
@@ -1169,7 +1224,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L21" s="10">
+      <c r="L21" s="3">
         <v>1</v>
       </c>
       <c r="M21">
@@ -1177,20 +1232,20 @@
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A22" s="5" t="s">
+      <c r="A22" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B22" s="5"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5" t="s">
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="H22" s="5"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H22" s="4"/>
       <c r="I22">
         <v>7</v>
       </c>
@@ -1201,7 +1256,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L22" s="10">
+      <c r="L22" s="3">
         <v>1</v>
       </c>
       <c r="M22">
@@ -1209,20 +1264,20 @@
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A23" s="5" t="s">
+      <c r="A23" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5" t="s">
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5" t="s">
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="H23" s="5"/>
+      <c r="H23" s="4"/>
       <c r="I23">
         <v>9</v>
       </c>
@@ -1233,7 +1288,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L23" s="10">
+      <c r="L23" s="3">
         <v>1</v>
       </c>
       <c r="M23">
@@ -1241,20 +1296,20 @@
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A24" s="5" t="s">
+      <c r="A24" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5" t="s">
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5" t="s">
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="H24" s="5"/>
+      <c r="H24" s="4"/>
       <c r="I24">
         <v>10</v>
       </c>
@@ -1265,7 +1320,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L24" s="10">
+      <c r="L24" s="3">
         <v>1</v>
       </c>
       <c r="M24">
@@ -1273,52 +1328,52 @@
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A25" s="5" t="s">
+      <c r="A25" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B25" s="5"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5" t="s">
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H25" s="4"/>
+      <c r="I25">
+        <v>15</v>
+      </c>
+      <c r="J25">
+        <v>15</v>
+      </c>
+      <c r="K25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L25" s="3">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A26" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="H25" s="5"/>
-      <c r="I25">
-        <v>7</v>
-      </c>
-      <c r="J25">
-        <v>7</v>
-      </c>
-      <c r="K25">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L25" s="10">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A26" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="B26" s="5"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="H26" s="5"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H26" s="4"/>
       <c r="I26">
         <v>8</v>
       </c>
@@ -1329,7 +1384,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L26" s="10">
+      <c r="L26" s="3">
         <v>1</v>
       </c>
       <c r="M26">
@@ -1337,20 +1392,20 @@
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A27" s="5" t="s">
+      <c r="A27" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B27" s="5"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="5" t="s">
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="5" t="s">
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="H27" s="5"/>
+      <c r="H27" s="4"/>
       <c r="I27">
         <v>10</v>
       </c>
@@ -1361,7 +1416,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L27" s="10">
+      <c r="L27" s="3">
         <v>1</v>
       </c>
       <c r="M27">
@@ -1369,20 +1424,20 @@
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A28" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="B28" s="5"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="5" t="s">
+      <c r="A28" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="E28" s="5"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="5" t="s">
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="H28" s="5"/>
+      <c r="H28" s="4"/>
       <c r="I28">
         <v>15</v>
       </c>
@@ -1393,7 +1448,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L28" s="10">
+      <c r="L28" s="3">
         <v>1</v>
       </c>
       <c r="M28">
@@ -1401,20 +1456,20 @@
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A29" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="B29" s="5"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="5" t="s">
+      <c r="A29" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="E29" s="5"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="H29" s="5"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H29" s="4"/>
       <c r="I29">
         <v>10</v>
       </c>
@@ -1425,7 +1480,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L29" s="10">
+      <c r="L29" s="3">
         <v>1</v>
       </c>
       <c r="M29">
@@ -1433,20 +1488,20 @@
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A30" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="B30" s="5"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="5" t="s">
+      <c r="A30" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B30" s="4"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E30" s="5"/>
-      <c r="F30" s="5"/>
-      <c r="G30" s="5" t="s">
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="H30" s="5"/>
+      <c r="H30" s="4"/>
       <c r="I30">
         <v>7</v>
       </c>
@@ -1457,7 +1512,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L30" s="10">
+      <c r="L30" s="3">
         <v>1</v>
       </c>
       <c r="M30">
@@ -1465,20 +1520,20 @@
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A31" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="B31" s="5"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="5" t="s">
+      <c r="A31" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B31" s="4"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E31" s="5"/>
-      <c r="F31" s="5"/>
-      <c r="G31" s="5" t="s">
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="H31" s="5"/>
+      <c r="H31" s="4"/>
       <c r="I31">
         <v>9</v>
       </c>
@@ -1489,7 +1544,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L31" s="10">
+      <c r="L31" s="3">
         <v>1</v>
       </c>
       <c r="M31">
@@ -1497,20 +1552,20 @@
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A32" s="5" t="s">
+      <c r="A32" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B32" s="4"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B32" s="5"/>
-      <c r="C32" s="5"/>
-      <c r="D32" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="E32" s="5"/>
-      <c r="F32" s="5"/>
-      <c r="G32" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="H32" s="5"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H32" s="4"/>
       <c r="I32">
         <v>7</v>
       </c>
@@ -1521,7 +1576,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L32" s="10">
+      <c r="L32" s="3">
         <v>1</v>
       </c>
       <c r="M32">
@@ -1529,20 +1584,20 @@
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A33" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="B33" s="5"/>
-      <c r="C33" s="5"/>
-      <c r="D33" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="E33" s="5"/>
-      <c r="F33" s="5"/>
-      <c r="G33" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="H33" s="5"/>
+      <c r="A33" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B33" s="4"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H33" s="4"/>
       <c r="I33">
         <v>8</v>
       </c>
@@ -1553,7 +1608,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L33" s="10">
+      <c r="L33" s="3">
         <v>1</v>
       </c>
       <c r="M33">
@@ -1561,20 +1616,20 @@
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A34" s="5" t="s">
+      <c r="A34" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B34" s="4"/>
+      <c r="C34" s="4"/>
+      <c r="D34" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B34" s="5"/>
-      <c r="C34" s="5"/>
-      <c r="D34" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="E34" s="5"/>
-      <c r="F34" s="5"/>
-      <c r="G34" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="H34" s="5"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H34" s="4"/>
       <c r="I34">
         <v>5</v>
       </c>
@@ -1585,7 +1640,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L34" s="10">
+      <c r="L34" s="3">
         <v>1</v>
       </c>
       <c r="M34">
@@ -1593,20 +1648,20 @@
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A35" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="B35" s="5"/>
-      <c r="C35" s="5"/>
-      <c r="D35" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="E35" s="5"/>
-      <c r="F35" s="5"/>
-      <c r="G35" s="5" t="s">
+      <c r="A35" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B35" s="4"/>
+      <c r="C35" s="4"/>
+      <c r="D35" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E35" s="4"/>
+      <c r="F35" s="4"/>
+      <c r="G35" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="H35" s="5"/>
+      <c r="H35" s="4"/>
       <c r="I35">
         <v>8</v>
       </c>
@@ -1617,7 +1672,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L35" s="10">
+      <c r="L35" s="3">
         <v>1</v>
       </c>
       <c r="M35">
@@ -1625,20 +1680,20 @@
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A36" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="B36" s="5"/>
-      <c r="C36" s="5"/>
-      <c r="D36" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="E36" s="5"/>
-      <c r="F36" s="5"/>
-      <c r="G36" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="H36" s="5"/>
+      <c r="A36" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B36" s="4"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E36" s="4"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H36" s="4"/>
       <c r="I36">
         <v>30</v>
       </c>
@@ -1649,7 +1704,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L36" s="10">
+      <c r="L36" s="3">
         <v>1</v>
       </c>
       <c r="M36">
@@ -1657,20 +1712,20 @@
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A37" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="B37" s="5"/>
-      <c r="C37" s="5"/>
-      <c r="D37" s="5" t="s">
+      <c r="A37" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B37" s="4"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E37" s="5"/>
-      <c r="F37" s="5"/>
-      <c r="G37" s="5" t="s">
+      <c r="E37" s="4"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="H37" s="5"/>
+      <c r="H37" s="4"/>
       <c r="I37">
         <v>7</v>
       </c>
@@ -1681,7 +1736,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L37" s="10">
+      <c r="L37" s="3">
         <v>1</v>
       </c>
       <c r="M37">
@@ -1689,20 +1744,20 @@
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A38" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="B38" s="5"/>
-      <c r="C38" s="5"/>
-      <c r="D38" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="E38" s="5"/>
-      <c r="F38" s="5"/>
-      <c r="G38" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="H38" s="5"/>
+      <c r="A38" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B38" s="4"/>
+      <c r="C38" s="4"/>
+      <c r="D38" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E38" s="4"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H38" s="4"/>
       <c r="I38">
         <v>5</v>
       </c>
@@ -1713,7 +1768,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L38" s="10">
+      <c r="L38" s="3">
         <v>1</v>
       </c>
       <c r="M38">
@@ -1721,20 +1776,20 @@
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A39" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="B39" s="5"/>
-      <c r="C39" s="5"/>
-      <c r="D39" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="E39" s="5"/>
-      <c r="F39" s="5"/>
-      <c r="G39" s="5" t="s">
+      <c r="A39" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B39" s="4"/>
+      <c r="C39" s="4"/>
+      <c r="D39" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E39" s="4"/>
+      <c r="F39" s="4"/>
+      <c r="G39" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="H39" s="5"/>
+      <c r="H39" s="4"/>
       <c r="I39">
         <v>8</v>
       </c>
@@ -1745,7 +1800,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L39" s="10">
+      <c r="L39" s="3">
         <v>1</v>
       </c>
       <c r="M39">
@@ -1753,20 +1808,20 @@
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A40" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="B40" s="5"/>
-      <c r="C40" s="5"/>
-      <c r="D40" s="5" t="s">
+      <c r="A40" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="E40" s="5"/>
-      <c r="F40" s="5"/>
-      <c r="G40" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="H40" s="5"/>
+      <c r="B40" s="4"/>
+      <c r="C40" s="4"/>
+      <c r="D40" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E40" s="4"/>
+      <c r="F40" s="4"/>
+      <c r="G40" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H40" s="4"/>
       <c r="I40">
         <v>30</v>
       </c>
@@ -1777,7 +1832,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L40" s="10">
+      <c r="L40" s="3">
         <v>1</v>
       </c>
       <c r="M40">
@@ -1785,20 +1840,20 @@
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A41" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="B41" s="5"/>
-      <c r="C41" s="5"/>
-      <c r="D41" s="5" t="s">
+      <c r="A41" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B41" s="4"/>
+      <c r="C41" s="4"/>
+      <c r="D41" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E41" s="5"/>
-      <c r="F41" s="5"/>
-      <c r="G41" s="5" t="s">
+      <c r="E41" s="4"/>
+      <c r="F41" s="4"/>
+      <c r="G41" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="H41" s="5"/>
+      <c r="H41" s="4"/>
       <c r="I41">
         <v>7</v>
       </c>
@@ -1809,15 +1864,523 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L41" s="10">
+      <c r="L41" s="3">
         <v>1</v>
       </c>
       <c r="M41">
         <v>1</v>
       </c>
     </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A42" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B42" s="4"/>
+      <c r="C42" s="4"/>
+      <c r="D42" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E42" s="4"/>
+      <c r="F42" s="4"/>
+      <c r="G42" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="H42" s="4"/>
+      <c r="I42">
+        <v>15</v>
+      </c>
+      <c r="J42">
+        <v>15</v>
+      </c>
+      <c r="K42">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L42" s="3">
+        <v>1</v>
+      </c>
+      <c r="M42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A43" s="13"/>
+      <c r="B43" s="13"/>
+      <c r="C43" s="13"/>
+      <c r="D43" s="13"/>
+      <c r="E43" s="13"/>
+      <c r="F43" s="13"/>
+      <c r="G43" s="13"/>
+      <c r="H43" s="13"/>
+      <c r="I43" s="13"/>
+      <c r="J43" s="13"/>
+      <c r="K43" s="13"/>
+      <c r="L43" s="13"/>
+      <c r="M43" s="13"/>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A44" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="B44" s="12"/>
+      <c r="C44" s="12"/>
+      <c r="D44" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="E44" s="12"/>
+      <c r="F44" s="12"/>
+      <c r="G44" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="H44" s="12"/>
+      <c r="I44">
+        <v>10</v>
+      </c>
+      <c r="J44">
+        <v>10</v>
+      </c>
+      <c r="K44">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L44" s="3">
+        <v>1</v>
+      </c>
+      <c r="M44">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A45" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="B45" s="12"/>
+      <c r="C45" s="12"/>
+      <c r="D45" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="E45" s="12"/>
+      <c r="F45" s="12"/>
+      <c r="G45" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="H45" s="12"/>
+      <c r="I45">
+        <v>15</v>
+      </c>
+      <c r="J45">
+        <v>15</v>
+      </c>
+      <c r="K45">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L45" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A46" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="B46" s="12"/>
+      <c r="C46" s="12"/>
+      <c r="D46" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="E46" s="12"/>
+      <c r="F46" s="12"/>
+      <c r="G46" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="H46" s="12"/>
+      <c r="I46">
+        <v>8</v>
+      </c>
+      <c r="J46">
+        <v>8</v>
+      </c>
+      <c r="K46">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L46" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A47" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="B47" s="12"/>
+      <c r="C47" s="12"/>
+      <c r="D47" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="E47" s="12"/>
+      <c r="F47" s="12"/>
+      <c r="G47" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="H47" s="12"/>
+      <c r="I47">
+        <v>5</v>
+      </c>
+      <c r="J47">
+        <v>5</v>
+      </c>
+      <c r="K47">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L47" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A48" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="B48" s="12"/>
+      <c r="C48" s="12"/>
+      <c r="D48" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="E48" s="12"/>
+      <c r="F48" s="12"/>
+      <c r="G48" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="H48" s="12"/>
+      <c r="I48">
+        <v>10</v>
+      </c>
+      <c r="J48">
+        <v>10</v>
+      </c>
+      <c r="K48">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L48" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A49" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="B49" s="12"/>
+      <c r="C49" s="12"/>
+      <c r="D49" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="E49" s="12"/>
+      <c r="F49" s="12"/>
+      <c r="G49" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="H49" s="12"/>
+      <c r="I49">
+        <v>15</v>
+      </c>
+      <c r="J49">
+        <v>15</v>
+      </c>
+      <c r="K49">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L49" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A50" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="B50" s="12"/>
+      <c r="C50" s="12"/>
+      <c r="D50" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="E50" s="12"/>
+      <c r="F50" s="12"/>
+      <c r="G50" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="H50" s="12"/>
+      <c r="I50">
+        <v>8</v>
+      </c>
+      <c r="J50">
+        <v>8</v>
+      </c>
+      <c r="K50">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L50" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A51" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="B51" s="12"/>
+      <c r="C51" s="12"/>
+      <c r="D51" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="E51" s="12"/>
+      <c r="F51" s="12"/>
+      <c r="G51" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="H51" s="12"/>
+      <c r="I51">
+        <v>5</v>
+      </c>
+      <c r="J51">
+        <v>5</v>
+      </c>
+      <c r="K51">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L51" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A52" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="B52" s="12"/>
+      <c r="C52" s="12"/>
+      <c r="D52" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="E52" s="12"/>
+      <c r="F52" s="12"/>
+      <c r="G52" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="H52" s="12"/>
+      <c r="I52">
+        <v>7</v>
+      </c>
+      <c r="J52">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A53" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="B53" s="12"/>
+      <c r="C53" s="12"/>
+      <c r="D53" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="E53" s="12"/>
+      <c r="F53" s="12"/>
+      <c r="G53" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="H53" s="12"/>
+      <c r="I53">
+        <v>7</v>
+      </c>
+      <c r="J53">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A54" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="B54" s="12"/>
+      <c r="C54" s="12"/>
+      <c r="D54" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="E54" s="12"/>
+      <c r="F54" s="12"/>
+      <c r="G54" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="H54" s="12"/>
+      <c r="I54">
+        <v>10</v>
+      </c>
+      <c r="J54">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A55" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="B55" s="12"/>
+      <c r="C55" s="12"/>
+      <c r="D55" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="E55" s="12"/>
+      <c r="F55" s="12"/>
+      <c r="G55" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="H55" s="12"/>
+      <c r="I55">
+        <v>15</v>
+      </c>
+      <c r="J55">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A56" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="B56" s="12"/>
+      <c r="C56" s="12"/>
+      <c r="D56" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="E56" s="12"/>
+      <c r="F56" s="12"/>
+      <c r="G56" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="H56" s="12"/>
+      <c r="I56">
+        <v>5</v>
+      </c>
+      <c r="J56">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A57" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="B57" s="12"/>
+      <c r="C57" s="12"/>
+      <c r="D57" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="E57" s="12"/>
+      <c r="F57" s="12"/>
+      <c r="G57" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="H57" s="12"/>
+      <c r="I57">
+        <v>10</v>
+      </c>
+      <c r="J57">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A58" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="B58" s="12"/>
+      <c r="C58" s="12"/>
+      <c r="D58" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="E58" s="12"/>
+      <c r="F58" s="12"/>
+      <c r="G58" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="H58" s="12"/>
+      <c r="I58">
+        <v>7</v>
+      </c>
+      <c r="J58">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A59" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B59" s="4"/>
+      <c r="C59" s="4"/>
+      <c r="D59" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E59" s="4"/>
+      <c r="F59" s="4"/>
+      <c r="G59" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="H59" s="12"/>
+      <c r="I59">
+        <v>45</v>
+      </c>
+      <c r="J59">
+        <v>45</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="110">
+  <mergeCells count="161">
+    <mergeCell ref="A59:C59"/>
+    <mergeCell ref="D59:F59"/>
+    <mergeCell ref="G59:H59"/>
+    <mergeCell ref="A56:C56"/>
+    <mergeCell ref="D56:F56"/>
+    <mergeCell ref="D57:F57"/>
+    <mergeCell ref="D58:F58"/>
+    <mergeCell ref="G56:H56"/>
+    <mergeCell ref="G57:H57"/>
+    <mergeCell ref="G58:H58"/>
+    <mergeCell ref="A57:C57"/>
+    <mergeCell ref="A58:C58"/>
+    <mergeCell ref="A52:C52"/>
+    <mergeCell ref="D52:F52"/>
+    <mergeCell ref="D54:F54"/>
+    <mergeCell ref="D55:F55"/>
+    <mergeCell ref="G52:H52"/>
+    <mergeCell ref="G54:H54"/>
+    <mergeCell ref="G55:H55"/>
+    <mergeCell ref="A54:C54"/>
+    <mergeCell ref="A55:C55"/>
+    <mergeCell ref="D53:F53"/>
+    <mergeCell ref="A53:C53"/>
+    <mergeCell ref="G53:H53"/>
+    <mergeCell ref="A47:C47"/>
+    <mergeCell ref="D47:F47"/>
+    <mergeCell ref="G47:H47"/>
+    <mergeCell ref="A48:C48"/>
+    <mergeCell ref="D48:F48"/>
+    <mergeCell ref="D49:F49"/>
+    <mergeCell ref="D50:F50"/>
+    <mergeCell ref="D51:F51"/>
+    <mergeCell ref="G48:H48"/>
+    <mergeCell ref="G49:H49"/>
+    <mergeCell ref="G50:H50"/>
+    <mergeCell ref="G51:H51"/>
+    <mergeCell ref="A49:C49"/>
+    <mergeCell ref="A50:C50"/>
+    <mergeCell ref="A51:C51"/>
+    <mergeCell ref="A44:C44"/>
+    <mergeCell ref="D44:F44"/>
+    <mergeCell ref="G44:H44"/>
+    <mergeCell ref="A45:C45"/>
+    <mergeCell ref="D45:F45"/>
+    <mergeCell ref="G45:H45"/>
+    <mergeCell ref="A46:C46"/>
+    <mergeCell ref="D46:F46"/>
+    <mergeCell ref="G46:H46"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="G38:H38"/>
     <mergeCell ref="A37:C37"/>
     <mergeCell ref="A41:C41"/>
     <mergeCell ref="D37:F37"/>
@@ -1828,6 +2391,23 @@
     <mergeCell ref="G41:H41"/>
     <mergeCell ref="G40:H40"/>
     <mergeCell ref="G39:H39"/>
+    <mergeCell ref="D39:F39"/>
+    <mergeCell ref="D40:F40"/>
+    <mergeCell ref="A39:C39"/>
+    <mergeCell ref="A40:C40"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="G34:H34"/>
     <mergeCell ref="G21:H21"/>
     <mergeCell ref="G22:H22"/>
     <mergeCell ref="G25:H25"/>
@@ -1835,37 +2415,12 @@
     <mergeCell ref="G29:H29"/>
     <mergeCell ref="G32:H32"/>
     <mergeCell ref="G33:H33"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A16:C16"/>
     <mergeCell ref="D35:F35"/>
     <mergeCell ref="D36:F36"/>
     <mergeCell ref="A38:C38"/>
     <mergeCell ref="D38:F38"/>
-    <mergeCell ref="D39:F39"/>
-    <mergeCell ref="D40:F40"/>
     <mergeCell ref="A35:C35"/>
     <mergeCell ref="A36:C36"/>
-    <mergeCell ref="A39:C39"/>
-    <mergeCell ref="A40:C40"/>
     <mergeCell ref="D30:F30"/>
     <mergeCell ref="D31:F31"/>
     <mergeCell ref="D32:F32"/>
@@ -1876,18 +2431,6 @@
     <mergeCell ref="A31:C31"/>
     <mergeCell ref="A32:C32"/>
     <mergeCell ref="A33:C33"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="A28:C28"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="A29:C29"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="D20:F20"/>
     <mergeCell ref="D21:F21"/>
     <mergeCell ref="D22:F22"/>
     <mergeCell ref="D23:F23"/>
@@ -1896,15 +2439,17 @@
     <mergeCell ref="A22:C22"/>
     <mergeCell ref="A23:C23"/>
     <mergeCell ref="A24:C24"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="G3:L3"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="G4:L4"/>
     <mergeCell ref="D15:F15"/>
     <mergeCell ref="D16:F16"/>
     <mergeCell ref="G12:H12"/>
@@ -1917,17 +2462,36 @@
     <mergeCell ref="D12:F12"/>
     <mergeCell ref="D13:F13"/>
     <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="A42:C42"/>
+    <mergeCell ref="D42:F42"/>
+    <mergeCell ref="G42:H42"/>
     <mergeCell ref="A7:C7"/>
     <mergeCell ref="D7:F7"/>
     <mergeCell ref="G7:H7"/>
     <mergeCell ref="A8:C8"/>
     <mergeCell ref="D8:F8"/>
     <mergeCell ref="G8:H8"/>
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="G3:L3"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="G4:L4"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="D20:F20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
